--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,185 +424,110 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>[8250081, 8250080.0, 'male']</t>
+          <t>8257809</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>[8250082, 8250087.0, 'female']</t>
+          <t>8250083</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>8250092</t>
+          <t>8250087</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>8257807</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8250082</t>
+          <t>8257808</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8250087.0</t>
+          <t>8257788</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8250092</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>8150080</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8250083</t>
+          <t>8100000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8250091.0</t>
+          <t>8257787</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257789</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>8250082</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8250084</t>
+          <t>8250081</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8250088.0</t>
+          <t>8257777</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257790</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>8257792</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8250085</t>
+          <t>8257800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8250086.0</t>
+          <t>8257801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257802</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>8250084</t>
         </is>
       </c>
     </row>
@@ -614,69 +539,139 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8250090.0</t>
+          <t>8257778</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257786</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>8257791</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8250092</t>
+          <t>8257793</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8150133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8257785</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>8257798</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8257780</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8257784</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8257799</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8257804</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8257806</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8250088</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8250085</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8257781</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8257783</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8257805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8250086</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8257803</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8250090</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8250091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8254000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8257782</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>8257779</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8257794</t>
         </is>
       </c>
     </row>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,269 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>8257809</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>8250083</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>8250087</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>8257807</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8257808</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>8257788</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8250092</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8150080</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8100000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8257787</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8257789</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8250082</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>8250081</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8257777</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8257790</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8257792</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8257800</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8257801</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8257802</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8250084</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>8250089</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8257778</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8257786</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8257791</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8257793</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8150133</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8257785</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8257798</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8257780</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8257784</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8257799</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8257804</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8257806</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8250088</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8250085</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8257781</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8257783</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8257805</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8250086</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8257803</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>8250090</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8250091</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8254000</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8257782</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>8257779</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8257794</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,14 +413,291 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFE16D0&gt;</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E1E43E0&gt;</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282CBCE1B0&gt;</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282CC04E60&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E231910&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002281B3A81A0&gt;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DCDFC50&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DD70290&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DD985F0&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DC96930&gt;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DC96A20&gt;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31BE30&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DC95700&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31BDD0&gt;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31BD70&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31B6B0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31B920&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E31BD40&gt;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E03E330&gt;</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E2C2900&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E2C3650&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282B7629C0&gt;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282C1452E0&gt;</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E304260&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E304320&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E304230&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E3053D0&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282B6CB830&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E3042C0&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282C12CA40&gt;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFEB440&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFEBF50&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282B6CBD70&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFEB950&gt;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFE8A10&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFE9D30&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFEBD40&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFEBB60&gt;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFD9E20&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFD84D0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFE9880&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFE85F0&gt;</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFFC080&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFFC0B0&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFD8110&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFD8950&gt;</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFFC500&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282E270F80&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFD8320&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Student object at 0x000002282DFFC6E0&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,276 +424,578 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFE16D0&gt;</t>
+          <t>Team ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E1E43E0&gt;</t>
+          <t>Member1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282CBCE1B0&gt;</t>
+          <t>Member2</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282CC04E60&gt;</t>
+          <t>Member3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Member4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Score balance</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Males</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Females</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E231910&gt;</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002281B3A81A0&gt;</t>
+          <t>8257809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DCDFC50&gt;</t>
+          <t>8250083</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DD70290&gt;</t>
+          <t>8250087</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8257807</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DD985F0&gt;</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DC96930&gt;</t>
+          <t>8257808</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DC96A20&gt;</t>
+          <t>8257788</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31BE30&gt;</t>
+          <t>8250092</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8150080</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DC95700&gt;</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31BDD0&gt;</t>
+          <t>8100000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31BD70&gt;</t>
+          <t>8257787</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31B6B0&gt;</t>
+          <t>8257789</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8257777</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31B920&gt;</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E31BD40&gt;</t>
+          <t>8250082</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E03E330&gt;</t>
+          <t>8250081</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E2C2900&gt;</t>
+          <t>8257792</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8257801</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E2C3650&gt;</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282B7629C0&gt;</t>
+          <t>8257790</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282C1452E0&gt;</t>
+          <t>8257800</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E304260&gt;</t>
+          <t>8257802</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8257803</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E304320&gt;</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E304230&gt;</t>
+          <t>8250084</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E3053D0&gt;</t>
+          <t>8250089</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282B6CB830&gt;</t>
+          <t>8257778</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8257791</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E3042C0&gt;</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282C12CA40&gt;</t>
+          <t>8257786</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFEB440&gt;</t>
+          <t>8257793</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFEBF50&gt;</t>
+          <t>8150133</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8257785</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282B6CBD70&gt;</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFEB950&gt;</t>
+          <t>8250090</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFE8A10&gt;</t>
+          <t>8250091</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFE9D30&gt;</t>
+          <t>8257798</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8250080</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFEBD40&gt;</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFEBB60&gt;</t>
+          <t>8257779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFD9E20&gt;</t>
+          <t>8257794</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFD84D0&gt;</t>
+          <t>8257784</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8257799</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFE9880&gt;</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFE85F0&gt;</t>
+          <t>8257795</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFFC080&gt;</t>
+          <t>8257796</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFFC0B0&gt;</t>
+          <t>8257806</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8250088</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFD8110&gt;</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFD8950&gt;</t>
+          <t>8257797</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFFC500&gt;</t>
+          <t>8257780</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282E270F80&gt;</t>
+          <t>8257783</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8257805</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFD8320&gt;</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;__main__.Student object at 0x000002282DFFC6E0&gt;</t>
+          <t>8257804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8250085</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8254000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8257782</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8257781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8250086</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Score balance</t>
+          <t>Balance</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -681,27 +681,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>8800000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8800001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>8250084</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8250089</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8257778</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8257791</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>202</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -723,19 +723,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>8800002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8800003</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>8257786</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8257793</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8150133</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>8257785</t>
@@ -743,7 +743,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8250090</t>
+          <t>8800004</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8250091</t>
+          <t>8800005</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -807,12 +807,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8257779</t>
+          <t>8800006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8257794</t>
+          <t>8800007</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8257795</t>
+          <t>8800008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8257796</t>
+          <t>8800009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8257797</t>
+          <t>8800010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8257780</t>
+          <t>8800011</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8257804</t>
+          <t>8800012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8250085</t>
+          <t>8800013</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -975,25 +975,825 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>8800014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8800015</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8800016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8800017</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8800018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8800019</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8800020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8800021</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8800022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8800023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8800024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8800025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8800026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8800027</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8800028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8800029</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8800030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8800031</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8800032</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8800033</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8800034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8800035</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8800036</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8800037</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8800038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8800039</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8800040</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8800041</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8800042</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8800043</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8800044</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8800045</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>8800046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8800047</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8800048</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8800049</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8250089</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8257791</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8257793</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8150133</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>8250090</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8250091</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8257779</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8257794</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8257795</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8257796</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>8257797</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8257780</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>8257804</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8250085</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>8257781</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>8250086</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,25 +691,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>8800006</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8800007</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>8250084</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>8257778</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -733,25 +743,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>8800008</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8800009</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>8257786</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>8257785</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -775,25 +795,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>8800010</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8800011</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>8257798</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>8250080</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -807,35 +837,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8800006</t>
+          <t>8800012</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8800007</t>
+          <t>8800013</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>8800014</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8800015</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>8257784</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>8257799</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -849,35 +889,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8800008</t>
+          <t>8800016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8800009</t>
+          <t>8800017</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>8800018</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8800019</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>8257806</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>8250088</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -891,35 +941,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8800010</t>
+          <t>8800020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8800011</t>
+          <t>8800021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>8800022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8800023</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>8257783</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>8257805</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -933,35 +993,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8800012</t>
+          <t>8800024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8800013</t>
+          <t>8800025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>8800026</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8800027</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>8254000</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>8257782</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -975,25 +1045,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8800014</t>
+          <t>8800028</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8800015</t>
+          <t>8800029</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8800030</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8800031</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1007,25 +1087,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8800016</t>
+          <t>8800032</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8800017</t>
+          <t>8800033</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8800034</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8800035</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1039,25 +1129,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8800018</t>
+          <t>8800036</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8800019</t>
+          <t>8800037</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8800038</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8800039</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1071,25 +1171,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8800020</t>
+          <t>8800040</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8800021</t>
+          <t>8800041</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8800042</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1103,17 +1208,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8800022</t>
+          <t>8800043</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8800023</t>
+          <t>8800044</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1135,17 +1240,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8800024</t>
+          <t>8800045</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8800025</t>
+          <t>8800046</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1167,17 +1272,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8800026</t>
+          <t>8800047</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8800027</t>
+          <t>8800048</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1199,17 +1304,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8800028</t>
+          <t>8800049</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8800029</t>
+          <t>8250089</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1231,17 +1336,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8800030</t>
+          <t>8257791</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8800031</t>
+          <t>8257793</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1263,17 +1368,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8800032</t>
+          <t>8150133</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8800033</t>
+          <t>8250090</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1295,17 +1400,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8800034</t>
+          <t>8250091</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8800035</t>
+          <t>8257779</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1327,17 +1432,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8800036</t>
+          <t>8257794</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8800037</t>
+          <t>8257795</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1359,17 +1464,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8800038</t>
+          <t>8257796</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8800039</t>
+          <t>8257797</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1391,17 +1496,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8800040</t>
+          <t>8257780</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8800041</t>
+          <t>8257804</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,17 +1528,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8800042</t>
+          <t>8250085</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8800043</t>
+          <t>8257781</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1455,345 +1560,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8800044</t>
+          <t>8250086</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8800045</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8800046</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>8800047</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>8800048</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>8800049</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>8250089</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>8257791</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>8257793</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>8150133</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>8250090</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>8250091</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>8257779</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8257794</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>8257795</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>8257796</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>8257797</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>8257780</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>8257804</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>8250085</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>8257781</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>8250086</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,15 +449,20 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Member5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Balance</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Males</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Females</t>
         </is>
@@ -491,15 +496,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -533,15 +543,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -575,15 +590,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -617,15 +637,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -659,15 +684,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -681,45 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8800000</t>
+          <t>8250084</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8800001</t>
+          <t>8250089</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8800006</t>
+          <t>8257778</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8800007</t>
+          <t>8257791</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8250084</t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8257778</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -733,45 +758,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8800002</t>
+          <t>8257786</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8800003</t>
+          <t>8257793</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8800008</t>
+          <t>8150133</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8800009</t>
+          <t>8257785</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8257786</t>
+          <t> </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8257785</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -785,47 +805,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8800004</t>
+          <t>8250090</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8800005</t>
+          <t>8250091</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8800010</t>
+          <t>8257795</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8800011</t>
+          <t>8257795</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8257798</t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8250080</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -837,47 +852,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8800012</t>
+          <t>8257779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8800013</t>
+          <t>8257794</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8800014</t>
+          <t>8257796</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8800015</t>
+          <t>8257798</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8257784</t>
+          <t> </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8257799</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -889,45 +899,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8800016</t>
+          <t>8257797</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8800017</t>
+          <t>8250080</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8800018</t>
+          <t>8257780</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8800019</t>
+          <t>8257784</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8257806</t>
+          <t> </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8250088</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -941,45 +946,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8800020</t>
+          <t>8257799</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8800021</t>
+          <t>8257804</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8800022</t>
+          <t>8257806</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8800023</t>
+          <t>8250085</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8257783</t>
+          <t> </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8257805</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -993,45 +993,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8800024</t>
+          <t>8250088</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8800025</t>
+          <t>8257781</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8800026</t>
+          <t>8257783</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8800027</t>
+          <t>8250086</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8254000</t>
+          <t> </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8257782</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1045,37 +1040,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8800028</t>
+          <t>8257805</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8800029</t>
+          <t>8254000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8800030</t>
+          <t> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8800031</t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t> </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8800032</t>
+          <t>8257782</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8800033</t>
+          <t> </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8800034</t>
+          <t> </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8800035</t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t> </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1120,462 +1120,9 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8800036</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8800037</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8800038</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8800039</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8800040</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8800041</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8800042</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>8800043</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8800044</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>8800045</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8800046</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>8800047</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8800048</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>8800049</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8250089</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>8257791</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>8257793</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>8150133</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>8250090</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>8250091</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>8257779</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8257794</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>8257795</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>8257796</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8257797</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>8257780</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8257804</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>8250085</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>8257781</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>8250086</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>Females</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,17 +533,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>8257810</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8257818</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>8257788</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8250092</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8150080</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,24 +575,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8100000</t>
+          <t>8250092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>8150080</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>8257787</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8257789</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8257777</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t> </t>
@@ -595,7 +600,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -617,24 +622,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>8100000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8257811</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>8250082</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8250081</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8257792</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8257801</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t> </t>
@@ -642,7 +647,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -664,24 +669,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>8257817</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8257777</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>8257790</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8257800</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8257802</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8257803</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t> </t>
@@ -689,7 +694,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -711,22 +716,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8250084</t>
+          <t>8257792</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8250089</t>
+          <t>8257801</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8257778</t>
+          <t>8257802</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8257791</t>
+          <t>8257803</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -741,12 +746,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -758,22 +763,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8257786</t>
+          <t>8250084</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8257793</t>
+          <t>8250089</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8150133</t>
+          <t>8257778</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8257785</t>
+          <t>8257791</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,7 +788,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -805,22 +810,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8250090</t>
+          <t>8257786</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8250091</t>
+          <t>8257793</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8257795</t>
+          <t>8257812</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8257795</t>
+          <t>8257816</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -830,17 +835,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>220</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -852,22 +857,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8257779</t>
+          <t>8150133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8257794</t>
+          <t>8257819</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8257796</t>
+          <t>8250090</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8257798</t>
+          <t>8250090</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -882,12 +887,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -899,22 +904,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8257797</t>
+          <t>8250091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8250080</t>
+          <t>8257779</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8257780</t>
+          <t>8257785</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8257784</t>
+          <t>8257798</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -924,7 +929,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -946,22 +951,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8257799</t>
+          <t>8257794</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8257804</t>
+          <t>8257795</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8257806</t>
+          <t>8257796</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8250085</t>
+          <t>8257797</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -971,17 +976,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -993,22 +998,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8250088</t>
+          <t>8257820</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8257781</t>
+          <t>8250080</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8257783</t>
+          <t>8257780</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8250086</t>
+          <t>8257784</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1018,7 +1023,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1040,22 +1045,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8257805</t>
+          <t>8257799</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8254000</t>
+          <t>8257804</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8257806</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8257813</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1065,12 +1070,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1087,42 +1092,89 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>8257815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8250088</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8250085</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8257783</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8257814</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8257781</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8257805</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8254000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8250086</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>8257782</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
